--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTAfterDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTAfterDays_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="88">
   <si>
     <t>ModuleName</t>
   </si>
@@ -225,36 +225,12 @@
     <t>EditSaveName</t>
   </si>
   <si>
-    <t>02:35:55 PM</t>
-  </si>
-  <si>
-    <t>04-05-2024</t>
-  </si>
-  <si>
-    <t>04-05-2024 05:29:49 PM</t>
-  </si>
-  <si>
     <t>ET163</t>
   </si>
   <si>
     <t>ET164</t>
   </si>
   <si>
-    <t>02:35:55 AM</t>
-  </si>
-  <si>
-    <t>ET196</t>
-  </si>
-  <si>
-    <t>11-05-2024</t>
-  </si>
-  <si>
-    <t>08-05-2024 10:57:56 AM</t>
-  </si>
-  <si>
-    <t>08-05-2024 11:02:20 AM</t>
-  </si>
-  <si>
     <t>TimeHour</t>
   </si>
   <si>
@@ -273,9 +249,6 @@
     <t>Every time the record is save</t>
   </si>
   <si>
-    <t>tskNT_ExecuteTask_DTAfterDays</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ET_ETRS_Notify </t>
   </si>
   <si>
@@ -291,9 +264,6 @@
     <t>05:00:00 PM</t>
   </si>
   <si>
-    <t>ET428</t>
-  </si>
-  <si>
     <t>31-05-2024 06:00:00 PM</t>
   </si>
   <si>
@@ -313,13 +283,15 @@
   </si>
   <si>
     <t>08:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET_DTAfterDays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,52 +643,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AA2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
-    <col min="37" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,21 +789,21 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -857,8 +829,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>86</v>
+      <c r="K2" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -866,11 +838,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>88</v>
+      <c r="N2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -900,13 +872,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -915,22 +887,22 @@
         <v>46</v>
       </c>
       <c r="AF2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="AG2" t="s" s="1">
-        <v>94</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>85</v>
+        <v>72</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -947,29 +919,29 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AA2"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1073,13 +1045,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1087,7 +1059,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1113,8 +1085,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>86</v>
+      <c r="K2" t="s">
+        <v>77</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1122,11 +1094,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>91</v>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1156,13 +1128,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1173,19 +1145,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>67</v>
       </c>
       <c r="AH2" s="7">
         <v>6</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1201,22 +1173,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AA2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1320,13 +1292,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
@@ -1334,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1360,8 +1332,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>86</v>
+      <c r="K2" t="s">
+        <v>77</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1369,11 +1341,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>93</v>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1403,13 +1375,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1420,22 +1392,22 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
       </c>
       <c r="AH2" s="7">
         <v>7</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="7">
         <v>0</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1451,48 +1423,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="30.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1596,13 +1568,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1610,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1636,8 +1608,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>86</v>
+      <c r="K2" t="s">
+        <v>77</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1645,11 +1617,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>96</v>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1679,13 +1651,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1696,19 +1668,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
       </c>
       <c r="AH2" s="7">
         <v>8</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTAfterDays_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_DTAfterDays_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
   <si>
     <t>ModuleName</t>
   </si>
@@ -255,43 +255,32 @@
     <t>1</t>
   </si>
   <si>
-    <t>28-05-2024</t>
-  </si>
-  <si>
-    <t>31-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>05:00:00 PM</t>
-  </si>
-  <si>
-    <t>31-05-2024 06:00:00 PM</t>
-  </si>
-  <si>
-    <t>06:00:00 PM</t>
-  </si>
-  <si>
-    <t>31-05-2024 07:00:00 PM</t>
-  </si>
-  <si>
-    <t>07:00:00 PM</t>
-  </si>
-  <si>
     <t>ET431</t>
   </si>
   <si>
-    <t>31-05-2024 08:00:00 PM</t>
-  </si>
-  <si>
-    <t>08:00:00 PM</t>
-  </si>
-  <si>
     <t>ET_DTAfterDays</t>
+  </si>
+  <si>
+    <t>10:00:00 PM</t>
+  </si>
+  <si>
+    <t>24-07-2024</t>
+  </si>
+  <si>
+    <t>27-07-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>10:00:00PM</t>
+  </si>
+  <si>
+    <t>ET2799</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,49 +632,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
+    <col min="37" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -829,8 +818,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="1">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -838,11 +827,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>79</v>
+      <c r="N2" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -878,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -889,11 +878,11 @@
       <c r="AF2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>84</v>
+      <c r="AG2" t="s" s="1">
+        <v>83</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>72</v>
@@ -901,7 +890,7 @@
       <c r="AJ2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s" s="1">
         <v>76</v>
       </c>
     </row>
@@ -918,30 +907,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1085,8 +1074,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1094,11 +1083,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s" s="0">
         <v>81</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1134,7 +1123,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1147,11 +1136,11 @@
       <c r="AF2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>67</v>
       </c>
       <c r="AH2" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>72</v>
@@ -1173,22 +1162,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1332,8 +1321,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1341,11 +1330,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>83</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1381,7 +1370,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1394,11 +1383,11 @@
       <c r="AF2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>72</v>
@@ -1423,48 +1412,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1608,8 +1597,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1617,11 +1606,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" t="s">
-        <v>86</v>
+      <c r="N2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1657,7 +1646,7 @@
         <v>41</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1670,11 +1659,11 @@
       <c r="AF2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
         <v>72</v>
